--- a/Lab 1.3/Requirements-Source-Traceability-Matrix.xlsx
+++ b/Lab 1.3/Requirements-Source-Traceability-Matrix.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\SE357-Pratice-class-main\Lab 1\Lab 1.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SE357-Pratice-class-main\Lab 1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -785,7 +785,7 @@
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
